--- a/صيدليات دكتور مصطفي طلعت_2026-01-14_10-47.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-14_10-47.xlsx
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>4:2</t>
+  </si>
+  <si>
+    <t>TRICOVEL 30 TABS.</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
@@ -931,17 +934,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>17</v>
+        <v>531</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -949,7 +952,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -957,17 +960,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -975,7 +978,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -983,51 +986,77 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="16" ht="25.5" customHeight="1">
-      <c r="K16" s="10">
-        <v>690</v>
-      </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="11">
+    <row r="16" ht="24.75" customHeight="1">
+      <c r="A16" s="6">
+        <v>13</v>
+      </c>
+      <c t="s" r="B16" s="7">
+        <v>31</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c t="s" r="H16" s="8">
         <v>32</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c t="s" r="F17" s="12">
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9">
+        <v>80</v>
+      </c>
+      <c r="M16" s="9"/>
+      <c t="s" r="N16" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" ht="26.25" customHeight="1">
+      <c r="K17" s="10">
+        <v>1221</v>
+      </c>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="11">
         <v>33</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
-      <c t="s" r="I17" s="14">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c t="s" r="F18" s="12">
         <v>34</v>
       </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13"/>
+      <c t="s" r="I18" s="14">
+        <v>35</v>
+      </c>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="50">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1071,10 +1100,13 @@
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:N17"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="I18:N18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
